--- a/medicine/Mort/Gisant_d'entrailles/Gisant_d'entrailles.xlsx
+++ b/medicine/Mort/Gisant_d'entrailles/Gisant_d'entrailles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gisant_d%27entrailles</t>
+          <t>Gisant_d'entrailles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un gisant (ou tombeau) d'entrailles est un monument funéraire recueillant les viscères d'un défunt de haut rang. Les entrailles ayant une grande symbolique religieuse sous l'Ancien Régime, elles étaient souvent séparées et inhumées à un autre endroit que les ossements et le cœur, selon le principe de la tripartition du corps. Cette dilaceratio corporis permet la multiplication des cérémonies. On identifie un gisant d'entrailles par la présence d'un petit sac dans une main[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un gisant (ou tombeau) d'entrailles est un monument funéraire recueillant les viscères d'un défunt de haut rang. Les entrailles ayant une grande symbolique religieuse sous l'Ancien Régime, elles étaient souvent séparées et inhumées à un autre endroit que les ossements et le cœur, selon le principe de la tripartition du corps. Cette dilaceratio corporis permet la multiplication des cérémonies. On identifie un gisant d'entrailles par la présence d'un petit sac dans une main.
 </t>
         </is>
       </c>
